--- a/eDCR/TempleteFiles/DoctorDB.xlsx
+++ b/eDCR/TempleteFiles/DoctorDB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadequr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arman.hossain\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3685" uniqueCount="894">
   <si>
     <t>Region</t>
   </si>
@@ -2689,13 +2689,28 @@
   </si>
   <si>
     <t>Habib Pharmacy</t>
+  </si>
+  <si>
+    <t>ProductGroup</t>
+  </si>
+  <si>
+    <t>Adoption</t>
+  </si>
+  <si>
+    <t>TeamTarget</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2705,7 +2720,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2736,9 +2757,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3043,38 +3066,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T184"/>
+  <dimension ref="A1:W184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="40.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="76.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.28515625" customWidth="1"/>
     <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" customWidth="1"/>
     <col min="19" max="19" width="12.7109375" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3135,8 +3159,17 @@
       <c r="T1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3155,7 +3188,7 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" t="s">
@@ -3197,8 +3230,17 @@
       <c r="T2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>892</v>
+      </c>
+      <c r="V2" t="s">
+        <v>893</v>
+      </c>
+      <c r="W2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -3260,7 +3302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -3322,7 +3364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3384,7 +3426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -3446,7 +3488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>69</v>
       </c>
@@ -3508,7 +3550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -3570,7 +3612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>83</v>
       </c>
@@ -3632,7 +3674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -3694,7 +3736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>95</v>
       </c>
@@ -3756,7 +3798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -3818,7 +3860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>108</v>
       </c>
@@ -3880,7 +3922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>112</v>
       </c>
@@ -3942,7 +3984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -4004,7 +4046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>124</v>
       </c>
@@ -14485,5 +14527,6 @@
   </sheetData>
   <autoFilter ref="A1:Q1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>